--- a/content/species/data/nba_example_RLI_data_trim_freshwater_plants.xlsx
+++ b/content/species/data/nba_example_RLI_data_trim_freshwater_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_repos\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C91F64-BDF8-41B4-AE02-FDDE4BE1EC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF17F5-BD66-46E1-8EF8-444B37BCBD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027AC6A8-209D-4E42-8E53-EE844CC37963}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Birds</t>
   </si>
   <si>
-    <t>Freshwater Crabs</t>
-  </si>
-  <si>
     <t>Mammals</t>
   </si>
   <si>
@@ -87,10 +84,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>Dragonflies &amp; Damselflies</t>
+    <t>Dragonflies &amp; damselflies</t>
   </si>
   <si>
-    <t>Freshwater Fishes</t>
+    <t>Freshwater crabs</t>
+  </si>
+  <si>
+    <t>Freshwater fishes</t>
   </si>
 </sst>
 </file>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED362CF-FE85-44F6-BE1C-A838815FA964}">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2018</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2007</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2025</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>2004</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>2016</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>2025</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1990</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2018</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2025</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1990</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>2018</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>1990</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1991</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1992</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>1993</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>1994</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>1995</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>1996</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>1997</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>1998</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>1999</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>2000</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>2001</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>2002</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>2004</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>2005</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>2006</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>2007</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>2008</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>2009</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>2010</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>2011</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>2012</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>2013</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>2014</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>2015</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>2016</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>2017</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>2018</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>2019</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>2020</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>2021</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>2022</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>2023</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>2024</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>2025</v>
@@ -2039,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2048,6 +2048,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="31801f9a6344885e2ad9c0aa60ac3e97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="06462e79f34d157ecd2cf5f2e1df8c8f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2319,15 +2328,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2342,6 +2342,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F79CD9FB-9076-417F-A692-736A5658190B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2361,14 +2369,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B46C6F7B-4D94-434F-B4A8-F4B534EF89A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23E37123-21DE-4118-A7E3-15EA5DE94433}">
   <ds:schemaRefs>
